--- a/data/trans_orig/P02E$contratada-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6030</v>
+        <v>5402</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01512539325015344</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05286360517168951</v>
+        <v>0.04735211583555821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4154</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1023</v>
+        <v>1144</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9855</v>
+        <v>9429</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03912104347384085</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009635842009152134</v>
+        <v>0.0107746032115596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09282126396291189</v>
+        <v>0.08881009220051914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5879</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1998</v>
+        <v>2108</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12691</v>
+        <v>12817</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02669264380637159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009073075189156041</v>
+        <v>0.009573051973251654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05762153194448639</v>
+        <v>0.05819391711664627</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>92665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83257</v>
+        <v>84391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99600</v>
+        <v>99678</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8123102117376823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7298365961022968</v>
+        <v>0.7397763687929251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8731020472175133</v>
+        <v>0.873787437208197</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -835,19 +835,19 @@
         <v>92396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84182</v>
+        <v>84754</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97941</v>
+        <v>98447</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8702472717710399</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7928841033460085</v>
+        <v>0.7982693773867301</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9224720820186341</v>
+        <v>0.9272400223477525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -856,19 +856,19 @@
         <v>185060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>173431</v>
+        <v>172875</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194525</v>
+        <v>194846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8402391273390164</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7874381660611709</v>
+        <v>0.7849142517228769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8832144174171197</v>
+        <v>0.8846692636733872</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>19685</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12883</v>
+        <v>13041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28915</v>
+        <v>28135</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1725643950121643</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1129340786536624</v>
+        <v>0.1143199134396831</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2534700794976076</v>
+        <v>0.2466340883969765</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -906,19 +906,19 @@
         <v>7726</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3710</v>
+        <v>3608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13727</v>
+        <v>14168</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0727702049039365</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03494291420335963</v>
+        <v>0.03398670677147422</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1292893066550027</v>
+        <v>0.1334476082948845</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -927,19 +927,19 @@
         <v>27411</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18164</v>
+        <v>18858</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37784</v>
+        <v>37824</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1244579927985989</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08247153193050713</v>
+        <v>0.08562003890062873</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1715534118007762</v>
+        <v>0.1717365816083619</v>
       </c>
     </row>
     <row r="7">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6114</v>
+        <v>6507</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0178614798511828</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05758640585414756</v>
+        <v>0.06128683969031891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6510</v>
+        <v>6823</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008610236056013163</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02955736358161291</v>
+        <v>0.03098045648468052</v>
       </c>
     </row>
     <row r="8">
@@ -1023,19 +1023,19 @@
         <v>5316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1678</v>
+        <v>1706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14610</v>
+        <v>12924</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06237628025717815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01968976997048297</v>
+        <v>0.02001465603641428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.171438747514299</v>
+        <v>0.1516530663265193</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7178</v>
+        <v>7432</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01518773935429267</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05029746829822684</v>
+        <v>0.05208226439385127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1065,19 +1065,19 @@
         <v>7483</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3030</v>
+        <v>2677</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16632</v>
+        <v>15318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03283120278850078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01329595095604636</v>
+        <v>0.01174641310993945</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07297313309817408</v>
+        <v>0.06720503644351643</v>
       </c>
     </row>
     <row r="9">
@@ -1094,19 +1094,19 @@
         <v>73594</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>64837</v>
+        <v>63563</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79538</v>
+        <v>79358</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8635824414293487</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7608297672868384</v>
+        <v>0.7458826898381911</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9333372534963907</v>
+        <v>0.9312244343953128</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>127</v>
@@ -1115,19 +1115,19 @@
         <v>132498</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>125217</v>
+        <v>124474</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>137578</v>
+        <v>137568</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9284812043884969</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8774565681242331</v>
+        <v>0.8722508693682162</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.964078804114228</v>
+        <v>0.9640060503698288</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>198</v>
@@ -1136,19 +1136,19 @@
         <v>206092</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>193878</v>
+        <v>194995</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>214022</v>
+        <v>214567</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9042160135331243</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8506294463454264</v>
+        <v>0.8555286734885702</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9390097755541729</v>
+        <v>0.9413996588716262</v>
       </c>
     </row>
     <row r="10">
@@ -1165,19 +1165,19 @@
         <v>6310</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2366</v>
+        <v>2073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13150</v>
+        <v>13612</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07404127831347317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02776091020629811</v>
+        <v>0.02432139783321767</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1543051009575455</v>
+        <v>0.1597246380688858</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1186,19 +1186,19 @@
         <v>8039</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3915</v>
+        <v>3928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14528</v>
+        <v>15064</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05633105625721047</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02743583154516993</v>
+        <v>0.02752267578730061</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1018021979973126</v>
+        <v>0.1055593133836347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1207,19 +1207,19 @@
         <v>14348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8015</v>
+        <v>7811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24424</v>
+        <v>24899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06295278367837492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03516712288127374</v>
+        <v>0.0342705960301078</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1071585840869919</v>
+        <v>0.1092443166559058</v>
       </c>
     </row>
     <row r="11">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6709</v>
+        <v>5894</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01588079818248578</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0556023238809436</v>
+        <v>0.04884898804487631</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5823</v>
+        <v>7089</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01708093164948114</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08642799879819348</v>
+        <v>0.1052137606071924</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1329,19 +1329,19 @@
         <v>3067</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8400</v>
+        <v>8531</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01631084655339803</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004754120890207557</v>
+        <v>0.004742807880698506</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04467330974253678</v>
+        <v>0.04537015815175132</v>
       </c>
     </row>
     <row r="13">
@@ -1358,19 +1358,19 @@
         <v>111373</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104200</v>
+        <v>104808</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115978</v>
+        <v>116073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9230670984959258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8636163865682966</v>
+        <v>0.8686625862386231</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9612352492158589</v>
+        <v>0.9620224020900005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1379,19 +1379,19 @@
         <v>58920</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52155</v>
+        <v>51499</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63323</v>
+        <v>63221</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8744493750598681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7740531375991534</v>
+        <v>0.764321416150114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9398029391160913</v>
+        <v>0.9382820220134838</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -1400,19 +1400,19 @@
         <v>170292</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>160990</v>
+        <v>160678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176503</v>
+        <v>177247</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9056457255102328</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8561749521690231</v>
+        <v>0.8545157897805663</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9386774528855318</v>
+        <v>0.9426327151162164</v>
       </c>
     </row>
     <row r="14">
@@ -1429,19 +1429,19 @@
         <v>6476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2777</v>
+        <v>2753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13051</v>
+        <v>12202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05367688872247107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02301585052514635</v>
+        <v>0.02281917440778897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1081676111417604</v>
+        <v>0.1011297928171337</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1450,19 +1450,19 @@
         <v>7309</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3056</v>
+        <v>3154</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13876</v>
+        <v>14010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1084696932906508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04536063866165998</v>
+        <v>0.04681615604440056</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2059390863197772</v>
+        <v>0.2079321640871558</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1471,19 +1471,19 @@
         <v>13785</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8022</v>
+        <v>7746</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22754</v>
+        <v>22263</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07331100191927449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04266106947352648</v>
+        <v>0.04119293079969992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1210100867565301</v>
+        <v>0.1183964276084335</v>
       </c>
     </row>
     <row r="15">
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5030</v>
+        <v>5403</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007375214599117359</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04168614901801005</v>
+        <v>0.04478071804830183</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4607</v>
+        <v>4497</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004732426017094646</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02450000366695008</v>
+        <v>0.02391369190603829</v>
       </c>
     </row>
     <row r="16">
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6399</v>
+        <v>8138</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008980083419186546</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02737894125887646</v>
+        <v>0.03481920682722422</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1588,19 +1588,19 @@
         <v>7972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2930</v>
+        <v>3377</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16855</v>
+        <v>16647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03197518808315288</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01175072166197727</v>
+        <v>0.01354453367608871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06760278485326902</v>
+        <v>0.06676833646189163</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1609,19 +1609,19 @@
         <v>10071</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4139</v>
+        <v>4450</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19443</v>
+        <v>18714</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02084945123797029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00856785604854496</v>
+        <v>0.00921235603432885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04025065289954247</v>
+        <v>0.03874170503607451</v>
       </c>
     </row>
     <row r="17">
@@ -1638,19 +1638,19 @@
         <v>214785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203937</v>
+        <v>205169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222015</v>
+        <v>222096</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9190215840604175</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.872608932166873</v>
+        <v>0.8778775571994382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9499574127737241</v>
+        <v>0.9503064164730005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>214</v>
@@ -1659,19 +1659,19 @@
         <v>222933</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>212203</v>
+        <v>209730</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>232830</v>
+        <v>231868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8941234382768815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8510902766447538</v>
+        <v>0.8411712528382447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9338187864443709</v>
+        <v>0.9299589074692501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>421</v>
@@ -1680,19 +1680,19 @@
         <v>437717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423693</v>
+        <v>423257</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>449562</v>
+        <v>449884</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9061699247777536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8771373861276934</v>
+        <v>0.8762345009479906</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9306905832509361</v>
+        <v>0.9313573167529511</v>
       </c>
     </row>
     <row r="18">
@@ -1709,19 +1709,19 @@
         <v>15858</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9250</v>
+        <v>9544</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25745</v>
+        <v>24877</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06785202906398334</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03958052544557827</v>
+        <v>0.04083867688056346</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1101586270112521</v>
+        <v>0.1064422008370324</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1730,19 +1730,19 @@
         <v>18426</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11714</v>
+        <v>11558</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28667</v>
+        <v>28604</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07390137363996571</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04698300189253259</v>
+        <v>0.04635641978606518</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1149738844374988</v>
+        <v>0.1147224639245909</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>34</v>
@@ -1751,19 +1751,19 @@
         <v>34284</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24178</v>
+        <v>24064</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46389</v>
+        <v>47742</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07097451521415138</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05005336055298744</v>
+        <v>0.0498184698614233</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09603601380333332</v>
+        <v>0.09883613829873965</v>
       </c>
     </row>
     <row r="19">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3942</v>
+        <v>5275</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004146303456412681</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01686730492933603</v>
+        <v>0.0225692560502093</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5529</v>
+        <v>4875</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002006108770124709</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01144554038993327</v>
+        <v>0.01009256147689424</v>
       </c>
     </row>
     <row r="20">
@@ -1894,19 +1894,19 @@
         <v>59291</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54089</v>
+        <v>54226</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61386</v>
+        <v>61378</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.9507585987461565</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8673396898275368</v>
+        <v>0.8695299165929073</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9843513531196909</v>
+        <v>0.9842246006400889</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>170</v>
@@ -1915,19 +1915,19 @@
         <v>178581</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>171120</v>
+        <v>170673</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>183899</v>
+        <v>183763</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.9417414621921681</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.9023943453318716</v>
+        <v>0.9000367319752408</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9697806483850254</v>
+        <v>0.9690661736453248</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>225</v>
@@ -1936,19 +1936,19 @@
         <v>237873</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>228419</v>
+        <v>229718</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>243773</v>
+        <v>243239</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9439730126364343</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.9064570503832968</v>
+        <v>0.9116108126785204</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9673866166427497</v>
+        <v>0.9652685125852258</v>
       </c>
     </row>
     <row r="22">
@@ -1965,19 +1965,19 @@
         <v>3071</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8273</v>
+        <v>8136</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04924140125384348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0156486468803091</v>
+        <v>0.01577539935991114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1326603101724631</v>
+        <v>0.1304700834070918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -1986,19 +1986,19 @@
         <v>11048</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5730</v>
+        <v>5866</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18509</v>
+        <v>18956</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05825853780783184</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03021935161497447</v>
+        <v>0.03093382635467535</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0976056546681283</v>
+        <v>0.09996326802475969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2007,19 +2007,19 @@
         <v>14118</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8218</v>
+        <v>8752</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23572</v>
+        <v>22273</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05602698736356568</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03261338335725026</v>
+        <v>0.03473148741477424</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09354294961670294</v>
+        <v>0.0883891873214796</v>
       </c>
     </row>
     <row r="23">
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8258</v>
+        <v>6978</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009140815169803806</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0330952617697548</v>
+        <v>0.02796488161924582</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7822</v>
+        <v>8019</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.008782792912417322</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03012080839320225</v>
+        <v>0.03087693177930138</v>
       </c>
     </row>
     <row r="25">
@@ -2163,19 +2163,19 @@
         <v>235650</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227885</v>
+        <v>226460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>242569</v>
+        <v>241855</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9443940043659071</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9132743620261449</v>
+        <v>0.9075651699054048</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9721213715326806</v>
+        <v>0.9692627619432479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>240</v>
@@ -2184,19 +2184,19 @@
         <v>245821</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>236650</v>
+        <v>237506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>251878</v>
+        <v>251519</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.946571948423556</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9112558700584439</v>
+        <v>0.9145531975717905</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9698961393529856</v>
+        <v>0.9685133205249572</v>
       </c>
     </row>
     <row r="26">
@@ -2226,19 +2226,19 @@
         <v>8654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3419</v>
+        <v>3984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15515</v>
+        <v>16498</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03468124489195537</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01370385827761236</v>
+        <v>0.01596605087759094</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06218001008902801</v>
+        <v>0.06611849294101023</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2247,19 +2247,19 @@
         <v>8654</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4070</v>
+        <v>4140</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16561</v>
+        <v>15776</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03332286958794429</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01567225054835452</v>
+        <v>0.01594329175496571</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06377161269583202</v>
+        <v>0.06074969717235465</v>
       </c>
     </row>
     <row r="27">
@@ -2289,19 +2289,19 @@
         <v>2940</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7861</v>
+        <v>7900</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01178393557233371</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.003535631222483381</v>
+        <v>0.003586639746248524</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03150513699912797</v>
+        <v>0.03165959909090447</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2310,19 +2310,19 @@
         <v>2940</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7945</v>
+        <v>7167</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01132238907608239</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.003404169849708975</v>
+        <v>0.003443254951149741</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03059393944684787</v>
+        <v>0.02759835084722317</v>
       </c>
     </row>
     <row r="28">
@@ -2343,19 +2343,19 @@
         <v>11056</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01765571628604829</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2364,19 +2364,19 @@
         <v>17725</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10235</v>
+        <v>10537</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27477</v>
+        <v>28450</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01764145782570467</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01018671721463296</v>
+        <v>0.01048718126833139</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02734705017325349</v>
+        <v>0.02831570756159616</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -2385,19 +2385,19 @@
         <v>28781</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18862</v>
+        <v>19120</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>42891</v>
+        <v>42736</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01764693233801949</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01156528088990156</v>
+        <v>0.01172308551921104</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02629864834221244</v>
+        <v>0.02620344227719128</v>
       </c>
     </row>
     <row r="29">
@@ -2414,19 +2414,19 @@
         <v>561879</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8972924733567382</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>885</v>
@@ -2435,19 +2435,19 @@
         <v>920977</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>904175</v>
+        <v>902166</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>938049</v>
+        <v>936755</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.916632649224806</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8999107322835274</v>
+        <v>0.8979108918822002</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9336245259266109</v>
+        <v>0.9323366790989166</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1425</v>
@@ -2456,19 +2456,19 @@
         <v>1482856</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1456751</v>
+        <v>1459764</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1505052</v>
+        <v>1505080</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9092070206219312</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8932008527767215</v>
+        <v>0.895048534048551</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9228164555973496</v>
+        <v>0.9228335443112075</v>
       </c>
     </row>
     <row r="30">
@@ -2485,19 +2485,19 @@
         <v>51400</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08208325448973298</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>60</v>
@@ -2506,19 +2506,19 @@
         <v>61201</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>48109</v>
+        <v>46924</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>77269</v>
+        <v>77622</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06091194246524242</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04788211427944972</v>
+        <v>0.0467030813848348</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07690444470349928</v>
+        <v>0.0772557702328216</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>111</v>
@@ -2527,19 +2527,19 @@
         <v>112601</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>91662</v>
+        <v>93440</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>133694</v>
+        <v>134589</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06904063277301843</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05620219700085404</v>
+        <v>0.05729261069452583</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08197385011359588</v>
+        <v>0.08252299399973505</v>
       </c>
     </row>
     <row r="31">
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002968555867480471</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2577,19 +2577,19 @@
         <v>4837</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1772</v>
+        <v>1053</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10860</v>
+        <v>10592</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004813950484246894</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001763616506755177</v>
+        <v>0.001047603352739857</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01080862705817823</v>
+        <v>0.01054195102188375</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -2598,19 +2598,19 @@
         <v>6696</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2835</v>
+        <v>2828</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12787</v>
+        <v>12920</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.004105414267030937</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001738136362316614</v>
+        <v>0.001733998675008254</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007840015474835474</v>
+        <v>0.007922026668744154</v>
       </c>
     </row>
     <row r="32">
@@ -2873,19 +2873,19 @@
         <v>7722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2969</v>
+        <v>2956</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15541</v>
+        <v>16599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05119314402048286</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01968401089138785</v>
+        <v>0.01960016795386933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1030301402484147</v>
+        <v>0.1100501434773753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2894,19 +2894,19 @@
         <v>7716</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3311</v>
+        <v>3111</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16210</v>
+        <v>16320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04713465209124396</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02022457102474253</v>
+        <v>0.01900533955000426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09902689492788143</v>
+        <v>0.0996997626863429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2915,19 +2915,19 @@
         <v>15437</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8663</v>
+        <v>9365</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24602</v>
+        <v>25961</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04908092646537716</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02754303819583692</v>
+        <v>0.02977585274520113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07821936685586564</v>
+        <v>0.08253953504165415</v>
       </c>
     </row>
     <row r="5">
@@ -2944,19 +2944,19 @@
         <v>130237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120192</v>
+        <v>118252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>137788</v>
+        <v>137645</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8634403249799016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7968467898457013</v>
+        <v>0.7839811230597832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9135034819823535</v>
+        <v>0.9125555725821655</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>132</v>
@@ -2965,19 +2965,19 @@
         <v>146133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136916</v>
+        <v>136873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>154017</v>
+        <v>154010</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8927106243598814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8364058845725467</v>
+        <v>0.8361406427281014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9408706981374795</v>
+        <v>0.9408268956460125</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -2986,19 +2986,19 @@
         <v>276370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>262503</v>
+        <v>263010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>287143</v>
+        <v>287185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8786738750944603</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8345860970274894</v>
+        <v>0.8361976607333287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9129258947096737</v>
+        <v>0.9130567550329806</v>
       </c>
     </row>
     <row r="6">
@@ -3015,19 +3015,19 @@
         <v>12876</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6531</v>
+        <v>6874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21451</v>
+        <v>21533</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08536653099961547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04329845087318348</v>
+        <v>0.04557609352042144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1422141281259081</v>
+        <v>0.1427583340791337</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3036,19 +3036,19 @@
         <v>8871</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3951</v>
+        <v>3852</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17237</v>
+        <v>16405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05419089734114406</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02413799012944962</v>
+        <v>0.02353159060287025</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1052983006202744</v>
+        <v>0.1002163146522763</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -3057,19 +3057,19 @@
         <v>21747</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13957</v>
+        <v>13967</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33708</v>
+        <v>34603</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06914136119440743</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04437345497283612</v>
+        <v>0.04440706580808527</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1071690768331276</v>
+        <v>0.1100148876359973</v>
       </c>
     </row>
     <row r="7">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4891</v>
+        <v>5903</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005963826207730654</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02988085602524121</v>
+        <v>0.03605790010286431</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5942</v>
+        <v>5034</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003103837245755096</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0188923289138099</v>
+        <v>0.01600442174511207</v>
       </c>
     </row>
     <row r="8">
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9145</v>
+        <v>8148</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0126787543140813</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05918922090939528</v>
+        <v>0.05273279651250402</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -3174,19 +3174,19 @@
         <v>3017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8071</v>
+        <v>8097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01524520692687212</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004519789754769057</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04077520719228561</v>
+        <v>0.04090682418686612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -3195,19 +3195,19 @@
         <v>4976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1055</v>
+        <v>1851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12761</v>
+        <v>13159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01412006444088417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00299459142779169</v>
+        <v>0.005250648881428702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03620776064101465</v>
+        <v>0.0373353540371459</v>
       </c>
     </row>
     <row r="9">
@@ -3224,19 +3224,19 @@
         <v>141620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>129809</v>
+        <v>131662</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147443</v>
+        <v>147411</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9165659471740923</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8401221939509499</v>
+        <v>0.8521150459688818</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9542485108405467</v>
+        <v>0.9540439214941501</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>164</v>
@@ -3245,19 +3245,19 @@
         <v>185168</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>176711</v>
+        <v>176675</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>190366</v>
+        <v>190924</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9355250699179076</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8927979419639528</v>
+        <v>0.8926133963532284</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9617853555123524</v>
+        <v>0.9646045837045242</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>294</v>
@@ -3266,19 +3266,19 @@
         <v>326788</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>314733</v>
+        <v>314737</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>335532</v>
+        <v>335069</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9272133191418314</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8930092274558862</v>
+        <v>0.8930197095188912</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9520220283944298</v>
+        <v>0.9507105255686279</v>
       </c>
     </row>
     <row r="10">
@@ -3295,19 +3295,19 @@
         <v>8739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3999</v>
+        <v>3900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19027</v>
+        <v>18430</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05656110667206907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02587990447465491</v>
+        <v>0.0252384183262458</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1231439325941304</v>
+        <v>0.1192806029319777</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3316,19 +3316,19 @@
         <v>9744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4864</v>
+        <v>4856</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17097</v>
+        <v>16863</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04922972315522029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02457195340336007</v>
+        <v>0.02453582632963751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08637864096291416</v>
+        <v>0.08519823411412823</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3337,19 +3337,19 @@
         <v>18483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11367</v>
+        <v>11384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29268</v>
+        <v>27865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05244382928551362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03225117465751379</v>
+        <v>0.03230023397941093</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08304312263635003</v>
+        <v>0.07906151058103245</v>
       </c>
     </row>
     <row r="11">
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6957</v>
+        <v>7654</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01419419183975732</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04502657561035812</v>
+        <v>0.04953659132335717</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7409</v>
+        <v>7562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006222787131770868</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02102296469199958</v>
+        <v>0.0214558615572682</v>
       </c>
     </row>
     <row r="12">
@@ -3433,19 +3433,19 @@
         <v>3866</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9212</v>
+        <v>9727</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01988925407947424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005016671705494573</v>
+        <v>0.004925058959506854</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04738452014018204</v>
+        <v>0.05003356210433267</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5305</v>
+        <v>5195</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009566872294778298</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0484969203441209</v>
+        <v>0.04748815716288919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -3475,19 +3475,19 @@
         <v>4913</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10857</v>
+        <v>10800</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01617239681657159</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00630348025598623</v>
+        <v>0.006255362330181726</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03573953257834177</v>
+        <v>0.03555026347254703</v>
       </c>
     </row>
     <row r="13">
@@ -3504,19 +3504,19 @@
         <v>173839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>163135</v>
+        <v>163429</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181548</v>
+        <v>180881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8942296112984738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8391684013956191</v>
+        <v>0.8406803919928404</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9338825846315298</v>
+        <v>0.9304537858535918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -3525,19 +3525,19 @@
         <v>97955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89871</v>
+        <v>89887</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103023</v>
+        <v>103347</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8954883462196154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.821587154537611</v>
+        <v>0.821732163028283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9418214485088817</v>
+        <v>0.944785027914373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -3546,19 +3546,19 @@
         <v>271794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258862</v>
+        <v>259586</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>281470</v>
+        <v>282251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8946828534020211</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.852115125327202</v>
+        <v>0.8544986721086723</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9265344599564526</v>
+        <v>0.9291037903718332</v>
       </c>
     </row>
     <row r="14">
@@ -3575,19 +3575,19 @@
         <v>10493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5687</v>
+        <v>5787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17913</v>
+        <v>18673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05397697847817913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02925296120992632</v>
+        <v>0.0297663977230275</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09214437300887031</v>
+        <v>0.09605428915555006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -3596,19 +3596,19 @@
         <v>9351</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4874</v>
+        <v>4293</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16559</v>
+        <v>17287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08548691152495014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0445529234426409</v>
+        <v>0.03924415582398778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1513773917479235</v>
+        <v>0.1580394342048243</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -3617,19 +3617,19 @@
         <v>19844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11841</v>
+        <v>11673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31066</v>
+        <v>30180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06532299589366623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03897778627087332</v>
+        <v>0.03842617936495347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1022612980826306</v>
+        <v>0.09934417920277307</v>
       </c>
     </row>
     <row r="15">
@@ -3646,19 +3646,19 @@
         <v>6202</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2127</v>
+        <v>2560</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12994</v>
+        <v>12725</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03190415614387287</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01094008433707529</v>
+        <v>0.01316776387904045</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06683879723735357</v>
+        <v>0.06545961488382099</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5189</v>
+        <v>5392</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.009457869960656191</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04743618261726619</v>
+        <v>0.04929444763954834</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -3688,19 +3688,19 @@
         <v>7237</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3040</v>
+        <v>3060</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13764</v>
+        <v>14417</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02382175388774106</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01000784757781659</v>
+        <v>0.01007147763198967</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04530638766721938</v>
+        <v>0.0474564244014257</v>
       </c>
     </row>
     <row r="16">
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4634</v>
+        <v>5073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002743169430939496</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01356642240697653</v>
+        <v>0.0148510601661275</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3742,19 +3742,19 @@
         <v>6720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2705</v>
+        <v>2087</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16643</v>
+        <v>14849</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01686089766288481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00678626705838318</v>
+        <v>0.00523730163156103</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04175693601440534</v>
+        <v>0.03725542695607782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3763,19 +3763,19 @@
         <v>7657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2912</v>
+        <v>3021</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16201</v>
+        <v>16516</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01034560006642363</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003934609557898583</v>
+        <v>0.004080957674738426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02188869216616985</v>
+        <v>0.0223144940319889</v>
       </c>
     </row>
     <row r="17">
@@ -3792,19 +3792,19 @@
         <v>319931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>310242</v>
+        <v>308546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>328195</v>
+        <v>326862</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9366206852113843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9082554844934132</v>
+        <v>0.9032892574743173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9608155220261744</v>
+        <v>0.9569118739258162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>344</v>
@@ -3813,19 +3813,19 @@
         <v>368697</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>356607</v>
+        <v>356621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>378525</v>
+        <v>378704</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9250358911368511</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8947035478336506</v>
+        <v>0.8947371474660059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9496923986270166</v>
+        <v>0.9501432296073867</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>645</v>
@@ -3834,19 +3834,19 @@
         <v>688628</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>673448</v>
+        <v>673554</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>701369</v>
+        <v>700432</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9303822457166562</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9098728913431794</v>
+        <v>0.9100168867778702</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9475967169220079</v>
+        <v>0.9463302973336127</v>
       </c>
     </row>
     <row r="18">
@@ -3863,19 +3863,19 @@
         <v>15781</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9186</v>
+        <v>9496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24709</v>
+        <v>25216</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04620108382386268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02689139786756327</v>
+        <v>0.02779979835406037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07233852513601166</v>
+        <v>0.07382257072344021</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -3884,19 +3884,19 @@
         <v>19051</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11724</v>
+        <v>11862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28588</v>
+        <v>28863</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04779742178460997</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02941383407238269</v>
+        <v>0.02976108613440568</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07172642184802068</v>
+        <v>0.07241550986023933</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -3905,19 +3905,19 @@
         <v>34832</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24694</v>
+        <v>25399</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47471</v>
+        <v>47533</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04706071565824736</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0333628895770979</v>
+        <v>0.03431592396803108</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06413681253216061</v>
+        <v>0.06422056329454569</v>
       </c>
     </row>
     <row r="19">
@@ -3934,19 +3934,19 @@
         <v>4931</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1903</v>
+        <v>1852</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11581</v>
+        <v>10878</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0144350615338135</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005571953566232386</v>
+        <v>0.00542243971345328</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0339036724231685</v>
+        <v>0.03184571246761071</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3955,19 +3955,19 @@
         <v>5104</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1991</v>
+        <v>2035</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11386</v>
+        <v>11288</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01280595226884257</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004995863821500088</v>
+        <v>0.005106327091421306</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02856622127356991</v>
+        <v>0.02831957657553055</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -3976,19 +3976,19 @@
         <v>10035</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5083</v>
+        <v>5086</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19080</v>
+        <v>18008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01355778227322106</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006868073811033912</v>
+        <v>0.006871193722246929</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02577810319732786</v>
+        <v>0.02432960204895696</v>
       </c>
     </row>
     <row r="20">
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7698</v>
+        <v>6918</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01638128563359876</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05690059109193032</v>
+        <v>0.05113347797499032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4030,19 +4030,19 @@
         <v>5802</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2094</v>
+        <v>2167</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13073</v>
+        <v>12849</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01621814904713026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005853789328707427</v>
+        <v>0.006057348973944874</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03654476851761175</v>
+        <v>0.03591944596603495</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -4051,19 +4051,19 @@
         <v>8018</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3251</v>
+        <v>3468</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16479</v>
+        <v>16254</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01626291717374762</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006595035363515536</v>
+        <v>0.007034025982166558</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03342516653851454</v>
+        <v>0.03296822661646215</v>
       </c>
     </row>
     <row r="21">
@@ -4080,19 +4080,19 @@
         <v>127762</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>120551</v>
+        <v>120315</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>132118</v>
+        <v>132029</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.9443293675990818</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8910267216966101</v>
+        <v>0.8892837551779827</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9765277390809851</v>
+        <v>0.975868895412412</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>294</v>
@@ -4101,19 +4101,19 @@
         <v>321500</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>308258</v>
+        <v>307919</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>332104</v>
+        <v>331073</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8987455168246073</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8617280449786369</v>
+        <v>0.8607807483937456</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9283892469354447</v>
+        <v>0.9255049780266957</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>417</v>
@@ -4122,19 +4122,19 @@
         <v>449261</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>435142</v>
+        <v>434758</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>461166</v>
+        <v>460976</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.9112546887237775</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8826167263222078</v>
+        <v>0.8818361472254589</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9354014070525649</v>
+        <v>0.9350164216188631</v>
       </c>
     </row>
     <row r="22">
@@ -4151,19 +4151,19 @@
         <v>3385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10101</v>
+        <v>9192</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02502207174405838</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00767730064257107</v>
+        <v>0.007624101951014007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07465976134731274</v>
+        <v>0.06793942581123957</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4172,19 +4172,19 @@
         <v>25252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16235</v>
+        <v>17151</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35701</v>
+        <v>36585</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07059131497891445</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04538351611344935</v>
+        <v>0.04794595522748377</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09980175245312291</v>
+        <v>0.1022730649207207</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -4193,19 +4193,19 @@
         <v>28637</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19865</v>
+        <v>19953</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40796</v>
+        <v>41261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05808615169729215</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04029248632741415</v>
+        <v>0.04047209982978643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08274804583585275</v>
+        <v>0.08369050176174017</v>
       </c>
     </row>
     <row r="23">
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5943</v>
+        <v>6973</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01426727502326104</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04392720451695954</v>
+        <v>0.05153947070762622</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -4243,19 +4243,19 @@
         <v>5167</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2026</v>
+        <v>2013</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11989</v>
+        <v>12264</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01444501914934795</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00566489673913976</v>
+        <v>0.005628265091077615</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03351476307116404</v>
+        <v>0.03428343861968338</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -4264,19 +4264,19 @@
         <v>7098</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2927</v>
+        <v>2991</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13607</v>
+        <v>14324</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0143962424051828</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005937575348591064</v>
+        <v>0.006066734390528388</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02759931573844344</v>
+        <v>0.02905474134731013</v>
       </c>
     </row>
     <row r="24">
@@ -4310,19 +4310,19 @@
         <v>4318</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10777</v>
+        <v>10967</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01506939976204875</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003685432350131779</v>
+        <v>0.003706889821272734</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03761292942386731</v>
+        <v>0.03827711555377945</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -4331,19 +4331,19 @@
         <v>4318</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1091</v>
+        <v>1061</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9808</v>
+        <v>10904</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.014651000832684</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003702237661927043</v>
+        <v>0.003599010547933984</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03328040620570199</v>
+        <v>0.03700090590023113</v>
       </c>
     </row>
     <row r="25">
@@ -4360,7 +4360,7 @@
         <v>7197</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4228</v>
+        <v>4001</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>8182</v>
@@ -4369,7 +4369,7 @@
         <v>0.8796555291343849</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5167022534202184</v>
+        <v>0.4889999995524184</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1</v>
@@ -4381,19 +4381,19 @@
         <v>267596</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>259074</v>
+        <v>257254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>275041</v>
+        <v>274953</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9339429245200196</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9042003485175547</v>
+        <v>0.8978493225528527</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9599257656966159</v>
+        <v>0.9596202191364074</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>262</v>
@@ -4402,19 +4402,19 @@
         <v>274794</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>265846</v>
+        <v>264461</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>282895</v>
+        <v>282035</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9324356456326047</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9020706468207133</v>
+        <v>0.8973710235257437</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9599226150477386</v>
+        <v>0.9570052825912887</v>
       </c>
     </row>
     <row r="26">
@@ -4444,19 +4444,19 @@
         <v>8293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4008</v>
+        <v>3250</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15523</v>
+        <v>15564</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0289446284578885</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01398826852317479</v>
+        <v>0.01134337119998271</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05417825215160967</v>
+        <v>0.05432128825751985</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -4465,19 +4465,19 @@
         <v>8293</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3297</v>
+        <v>3959</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15394</v>
+        <v>15103</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02814098652464174</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01118579127711675</v>
+        <v>0.01343441968449516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05223599060620177</v>
+        <v>0.0512468444748229</v>
       </c>
     </row>
     <row r="27">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3954</v>
+        <v>4181</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1203444708656151</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4832977465797821</v>
+        <v>0.5110000004475816</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -4515,19 +4515,19 @@
         <v>7392</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3156</v>
+        <v>3147</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14304</v>
+        <v>13965</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02580028483144934</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01101432196187218</v>
+        <v>0.01098176973416599</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0499242678648484</v>
+        <v>0.04873842622333967</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -4536,19 +4536,19 @@
         <v>8377</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4037</v>
+        <v>3257</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>15945</v>
+        <v>14917</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02842528561707976</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01369879759340526</v>
+        <v>0.01105040401570956</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.054105186185007</v>
+        <v>0.05061753930509386</v>
       </c>
     </row>
     <row r="28">
@@ -4569,19 +4569,19 @@
         <v>16701</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01695822363507884</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -4590,19 +4590,19 @@
         <v>28619</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17835</v>
+        <v>18367</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41413</v>
+        <v>41633</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01890523666335587</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01178129628689595</v>
+        <v>0.01213254958063015</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02735613991867591</v>
+        <v>0.02750151604773016</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -4611,19 +4611,19 @@
         <v>45320</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>32343</v>
+        <v>33079</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>60477</v>
+        <v>62983</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01813784775827971</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01294427795160135</v>
+        <v>0.01323873578578697</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02420403160770277</v>
+        <v>0.02520689071286882</v>
       </c>
     </row>
     <row r="29">
@@ -4640,19 +4640,19 @@
         <v>900587</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.914483382701484</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1283</v>
@@ -4661,19 +4661,19 @@
         <v>1387050</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1364002</v>
+        <v>1364452</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1408294</v>
+        <v>1408147</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9162502104624461</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9010252179184567</v>
+        <v>0.9013225183514378</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9302837033570283</v>
+        <v>0.9301866572092964</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2133</v>
@@ -4682,19 +4682,19 @@
         <v>2287637</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2255959</v>
+        <v>2260302</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2312818</v>
+        <v>2314944</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.915553839148412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9028758444210329</v>
+        <v>0.9046140748266289</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.925631785568672</v>
+        <v>0.9264826793641718</v>
       </c>
     </row>
     <row r="30">
@@ -4711,19 +4711,19 @@
         <v>51276</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38570</v>
+        <v>38421</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67300</v>
+        <v>67618</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05206670902568295</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0391650301272831</v>
+        <v>0.03901398668467522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06833876698288469</v>
+        <v>0.06866112221155705</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>78</v>
@@ -4732,19 +4732,19 @@
         <v>80562</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64826</v>
+        <v>63638</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99202</v>
+        <v>99229</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0532173804615879</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04282246256437147</v>
+        <v>0.04203797084866439</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06553052044834028</v>
+        <v>0.06554789953466439</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>128</v>
@@ -4753,19 +4753,19 @@
         <v>131838</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>112210</v>
+        <v>110486</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>156524</v>
+        <v>155382</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0527638588464383</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04490845203557738</v>
+        <v>0.04421840202064131</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06264380602057698</v>
+        <v>0.06218677146527515</v>
       </c>
     </row>
     <row r="31">
@@ -4782,19 +4782,19 @@
         <v>16241</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01649168463775417</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -4803,19 +4803,19 @@
         <v>19675</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12015</v>
+        <v>12270</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29973</v>
+        <v>30246</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01299657145571122</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007936785995219424</v>
+        <v>0.008105240202043054</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01979957245381809</v>
+        <v>0.01997982074499313</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>35</v>
@@ -4824,19 +4824,19 @@
         <v>35916</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25791</v>
+        <v>25690</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48703</v>
+        <v>49523</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01437412314074471</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01032202404665641</v>
+        <v>0.01028157938903074</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01949182128182178</v>
+        <v>0.01981994780432421</v>
       </c>
     </row>
     <row r="32">
@@ -5099,19 +5099,19 @@
         <v>4109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1013</v>
+        <v>1045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10420</v>
+        <v>10332</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0424238532761404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01046002094342161</v>
+        <v>0.01078555609702064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1075846744577524</v>
+        <v>0.1066746476195712</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5120,19 +5120,19 @@
         <v>6754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2960</v>
+        <v>2853</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12711</v>
+        <v>13541</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04728691118764893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02072757850547443</v>
+        <v>0.01997580501485717</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08899664803999673</v>
+        <v>0.09481137787255456</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -5141,19 +5141,19 @@
         <v>10863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5612</v>
+        <v>5755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18770</v>
+        <v>18884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04532168814189203</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02341367076440416</v>
+        <v>0.02400983805347869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07831370871519468</v>
+        <v>0.07878777863406076</v>
       </c>
     </row>
     <row r="5">
@@ -5170,19 +5170,19 @@
         <v>83805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75121</v>
+        <v>75182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89670</v>
+        <v>89405</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8652337964875739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7755820538051956</v>
+        <v>0.776204949577623</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9257852263294958</v>
+        <v>0.9230543160481721</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -5191,19 +5191,19 @@
         <v>118905</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108514</v>
+        <v>108292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127114</v>
+        <v>126781</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8325394048056192</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7597817274075058</v>
+        <v>0.7582324580847681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.890017515288598</v>
+        <v>0.8876883462661066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>193</v>
@@ -5212,19 +5212,19 @@
         <v>202710</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>190747</v>
+        <v>190536</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>213738</v>
+        <v>213055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8457516208987746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7958423199236556</v>
+        <v>0.794960704360771</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8917654322295704</v>
+        <v>0.888916291158765</v>
       </c>
     </row>
     <row r="6">
@@ -5241,19 +5241,19 @@
         <v>8077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3847</v>
+        <v>3291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15676</v>
+        <v>14232</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08339421209664703</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03971995910212857</v>
+        <v>0.03398230010987219</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1618480679051348</v>
+        <v>0.1469402336463032</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -5262,19 +5262,19 @@
         <v>17163</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9919</v>
+        <v>10023</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27349</v>
+        <v>26602</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1201736840067319</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06945061887335845</v>
+        <v>0.07017642154681202</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1914876786117923</v>
+        <v>0.186259768005852</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -5283,19 +5283,19 @@
         <v>25241</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16609</v>
+        <v>16952</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36455</v>
+        <v>36331</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1053106354632598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06929723192507461</v>
+        <v>0.0707271276751099</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1520996193418806</v>
+        <v>0.1515794431251684</v>
       </c>
     </row>
     <row r="7">
@@ -5315,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4870</v>
+        <v>4748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008948138139638583</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05028396208923799</v>
+        <v>0.04901509404810409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4348</v>
+        <v>4917</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003616055496073466</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01813909032870506</v>
+        <v>0.02051614715859943</v>
       </c>
     </row>
     <row r="8">
@@ -5379,19 +5379,19 @@
         <v>3101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7815</v>
+        <v>8195</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02893818669967601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008232484800000156</v>
+        <v>0.008188820973618321</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07293104329047591</v>
+        <v>0.0764791761663868</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -5400,19 +5400,19 @@
         <v>3724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12203</v>
+        <v>10754</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0236668050495918</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006480108454617521</v>
+        <v>0.006350577136796012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0775514077525325</v>
+        <v>0.06833941496045066</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -5421,19 +5421,19 @@
         <v>6825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2648</v>
+        <v>2762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14221</v>
+        <v>14193</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02580229965286835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01000975891547992</v>
+        <v>0.01044275114870906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05376212950164622</v>
+        <v>0.05365609086088514</v>
       </c>
     </row>
     <row r="9">
@@ -5450,19 +5450,19 @@
         <v>96239</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89393</v>
+        <v>88322</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>101466</v>
+        <v>101485</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.898092247353793</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8342132565166541</v>
+        <v>0.8242163691152175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9468745156087445</v>
+        <v>0.9470534893210337</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>128</v>
@@ -5471,19 +5471,19 @@
         <v>131036</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>118849</v>
+        <v>119741</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>139567</v>
+        <v>139319</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8327274425876612</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7552767076785349</v>
+        <v>0.760949446672065</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8869404038732915</v>
+        <v>0.8853647125242035</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>219</v>
@@ -5492,19 +5492,19 @@
         <v>227275</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>214098</v>
+        <v>214794</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>237222</v>
+        <v>237477</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8592074429154822</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8093924097360754</v>
+        <v>0.812023314213431</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8968110449479951</v>
+        <v>0.8977748669003076</v>
       </c>
     </row>
     <row r="10">
@@ -5521,19 +5521,19 @@
         <v>7819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3080</v>
+        <v>3068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13786</v>
+        <v>14590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07296956594653094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02873844955351569</v>
+        <v>0.0286281944033944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1286505734365172</v>
+        <v>0.1361523523075406</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -5542,19 +5542,19 @@
         <v>21439</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14056</v>
+        <v>14252</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32639</v>
+        <v>31933</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1362415665050558</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08932505047939854</v>
+        <v>0.09056949320249123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2074161676719478</v>
+        <v>0.2029331272336459</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -5563,19 +5563,19 @@
         <v>29258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20669</v>
+        <v>20005</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41937</v>
+        <v>40678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1106093841474984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0781395824981429</v>
+        <v>0.07562965193488856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1585431469054876</v>
+        <v>0.1537823687778158</v>
       </c>
     </row>
     <row r="11">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6864</v>
+        <v>6595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007364185857691195</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04362165551259709</v>
+        <v>0.0419079444380749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6019</v>
+        <v>6652</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004380873284151051</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02275455770594048</v>
+        <v>0.025148443386497</v>
       </c>
     </row>
     <row r="12">
@@ -5659,19 +5659,19 @@
         <v>3803</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10418</v>
+        <v>9557</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02715583978133903</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007217526437488686</v>
+        <v>0.007244419612460979</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07439976322732027</v>
+        <v>0.06824892669317183</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5693,19 +5693,19 @@
         <v>3803</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9773</v>
+        <v>8964</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01955827123253045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005236656751724179</v>
+        <v>0.005152156593562478</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05026925328325484</v>
+        <v>0.04610492512197243</v>
       </c>
     </row>
     <row r="13">
@@ -5722,19 +5722,19 @@
         <v>131822</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124250</v>
+        <v>124358</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>136187</v>
+        <v>136180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9414112905462695</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8873329825723674</v>
+        <v>0.8881092029385741</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9725821505815418</v>
+        <v>0.9725330561833219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -5743,7 +5743,7 @@
         <v>52532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48567</v>
+        <v>47442</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>54394</v>
@@ -5752,7 +5752,7 @@
         <v>0.9657660034698934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8928708837609008</v>
+        <v>0.8721915494190531</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -5764,19 +5764,19 @@
         <v>184355</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>175970</v>
+        <v>176507</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189127</v>
+        <v>188969</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9482251693441162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9050956583086289</v>
+        <v>0.907861011762827</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.972771930094141</v>
+        <v>0.9719587681960034</v>
       </c>
     </row>
     <row r="14">
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4579</v>
+        <v>5190</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007276029375167005</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03270149464939326</v>
+        <v>0.03706124810682975</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5827</v>
+        <v>6952</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03423399653010663</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.107129116239099</v>
+        <v>0.1278084505809465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -5835,19 +5835,19 @@
         <v>2881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8774</v>
+        <v>7807</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01481823779314895</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004717272062394065</v>
+        <v>0.0047250885846731</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04513008785314734</v>
+        <v>0.04015510012963312</v>
       </c>
     </row>
     <row r="15">
@@ -5864,19 +5864,19 @@
         <v>3383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9238</v>
+        <v>9493</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02415684029722447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.007093007015552827</v>
+        <v>0.007172705612153644</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06597524426979409</v>
+        <v>0.06779571487524441</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -5898,19 +5898,19 @@
         <v>3383</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9147</v>
+        <v>9943</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01739832163020446</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.00510657534427529</v>
+        <v>0.005096747946689633</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04704952415732601</v>
+        <v>0.05114146779572934</v>
       </c>
     </row>
     <row r="16">
@@ -5931,19 +5931,19 @@
         <v>3748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11975</v>
+        <v>10126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01463324865551777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004061387123604918</v>
+        <v>0.004024816439850911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04675705647581064</v>
+        <v>0.03953961041606648</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5952,19 +5952,19 @@
         <v>3006</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8187</v>
+        <v>7967</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009724744316571844</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002894273596022789</v>
+        <v>0.002914835095050643</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02648403464804605</v>
+        <v>0.02577196114329099</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -5973,19 +5973,19 @@
         <v>6754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2608</v>
+        <v>2411</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13881</v>
+        <v>13752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01194878755453125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00461353546899061</v>
+        <v>0.004264801023428925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0245584156979913</v>
+        <v>0.02432906678010584</v>
       </c>
     </row>
     <row r="17">
@@ -6002,19 +6002,19 @@
         <v>239202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>229317</v>
+        <v>229609</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>246024</v>
+        <v>245890</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9339966825913395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8953992879557789</v>
+        <v>0.8965385852931169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9606316152475831</v>
+        <v>0.960110456538941</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>265</v>
@@ -6023,19 +6023,19 @@
         <v>265381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>253133</v>
+        <v>252769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>276732</v>
+        <v>277138</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8584909271760424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8188680713773573</v>
+        <v>0.8176915522961549</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8952106518832547</v>
+        <v>0.8965234886286998</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>496</v>
@@ -6044,19 +6044,19 @@
         <v>504583</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>489682</v>
+        <v>488038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>518828</v>
+        <v>518102</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8927025837546062</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8663392077211658</v>
+        <v>0.8634309982102678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9179043002574881</v>
+        <v>0.9166205156643126</v>
       </c>
     </row>
     <row r="18">
@@ -6073,19 +6073,19 @@
         <v>12044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6687</v>
+        <v>6159</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20951</v>
+        <v>20247</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04702677659133414</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02610978955994804</v>
+        <v>0.02404954629736318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08180472747961454</v>
+        <v>0.07905903426795442</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -6094,19 +6094,19 @@
         <v>35392</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25088</v>
+        <v>25164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48074</v>
+        <v>46336</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1144911801206203</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08115914596166171</v>
+        <v>0.08140515101889897</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1555160073630458</v>
+        <v>0.1498942807650059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>48</v>
@@ -6115,19 +6115,19 @@
         <v>47436</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35104</v>
+        <v>35653</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>61257</v>
+        <v>63227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08392305995379683</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06210490709085929</v>
+        <v>0.06307639185367128</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1083746665400274</v>
+        <v>0.111860941221543</v>
       </c>
     </row>
     <row r="19">
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7507</v>
+        <v>7495</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008389436829716906</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02931163993168258</v>
+        <v>0.02926490497051566</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -6165,19 +6165,19 @@
         <v>6366</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2367</v>
+        <v>2857</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14137</v>
+        <v>12990</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02059217997241763</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007658545255259699</v>
+        <v>0.009243165231631226</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04573366584117218</v>
+        <v>0.04202148686623128</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -6186,19 +6186,19 @@
         <v>8514</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3440</v>
+        <v>4014</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15938</v>
+        <v>16689</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01506311724841338</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006085646449904527</v>
+        <v>0.007100966442255092</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02819819495877483</v>
+        <v>0.02952649716869942</v>
       </c>
     </row>
     <row r="20">
@@ -6219,19 +6219,19 @@
         <v>2858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7769</v>
+        <v>8479</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02100807744932254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005917650236086124</v>
+        <v>0.00597132940623146</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05710463270462705</v>
+        <v>0.06232906134957995</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6240,19 +6240,19 @@
         <v>4269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1046</v>
+        <v>997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10583</v>
+        <v>10236</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01711155004510113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004191000471703616</v>
+        <v>0.003994376304638838</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04241890583617563</v>
+        <v>0.04103083450374177</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -6261,19 +6261,19 @@
         <v>7127</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3730</v>
+        <v>3020</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14670</v>
+        <v>14158</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01848654770300955</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009674580293281804</v>
+        <v>0.00783384346940991</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03805092297313675</v>
+        <v>0.03672447761587969</v>
       </c>
     </row>
     <row r="21">
@@ -6290,19 +6290,19 @@
         <v>123238</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>115123</v>
+        <v>114964</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>128839</v>
+        <v>128574</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.9058785422965012</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8462231384147678</v>
+        <v>0.8450532863329216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9470435004800892</v>
+        <v>0.9450959026285747</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>221</v>
@@ -6311,19 +6311,19 @@
         <v>223475</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>213159</v>
+        <v>211822</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>231930</v>
+        <v>231498</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8957541946946093</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8544044650337022</v>
+        <v>0.8490454743616598</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9296473290759291</v>
+        <v>0.9279152107558798</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>335</v>
@@ -6332,19 +6332,19 @@
         <v>346714</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>332493</v>
+        <v>333628</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>356603</v>
+        <v>358576</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8993268512670667</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.862440209935414</v>
+        <v>0.865382995726127</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.9249769202384769</v>
+        <v>0.9300958272303834</v>
       </c>
     </row>
     <row r="22">
@@ -6361,19 +6361,19 @@
         <v>9181</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4199</v>
+        <v>4854</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16335</v>
+        <v>16993</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06748341640439637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03086439470485194</v>
+        <v>0.03567726861810011</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1200708919807142</v>
+        <v>0.1249080898460706</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -6382,19 +6382,19 @@
         <v>18727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11855</v>
+        <v>11565</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29353</v>
+        <v>29109</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07506464633011421</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04751876084010715</v>
+        <v>0.04635581905463823</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1176547065904317</v>
+        <v>0.1166780325919793</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -6403,19 +6403,19 @@
         <v>27908</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19447</v>
+        <v>18162</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39517</v>
+        <v>40363</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0723893992933209</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05044173716814164</v>
+        <v>0.04710955226221683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1025017097770736</v>
+        <v>0.1046948645665564</v>
       </c>
     </row>
     <row r="23">
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6594</v>
+        <v>6678</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01371364664031392</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04846636275108714</v>
+        <v>0.04908810434310548</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -6453,19 +6453,19 @@
         <v>3011</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8131</v>
+        <v>7993</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01206960893017541</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003768963422331617</v>
+        <v>0.003764600731103249</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03259006747943425</v>
+        <v>0.03204035654490139</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -6474,19 +6474,19 @@
         <v>4877</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11031</v>
+        <v>11568</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01264975318849746</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004911680851753209</v>
+        <v>0.004919254091132748</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02861219634664192</v>
+        <v>0.03000452548195845</v>
       </c>
     </row>
     <row r="24">
@@ -6520,19 +6520,19 @@
         <v>4786</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10728</v>
+        <v>11674</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02461627662233267</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006494168274091323</v>
+        <v>0.006505388793755769</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05517992037208398</v>
+        <v>0.06004530222762075</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -6541,19 +6541,19 @@
         <v>4786</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1310</v>
+        <v>1268</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12127</v>
+        <v>11847</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0223888726164989</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006126964275088581</v>
+        <v>0.005931582640472373</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05672933011346338</v>
+        <v>0.05541738241069726</v>
       </c>
     </row>
     <row r="25">
@@ -6570,19 +6570,19 @@
         <v>16212</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12068</v>
+        <v>11868</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18415</v>
+        <v>18407</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8381249695895627</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6239166713582494</v>
+        <v>0.6135390872265976</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9520215328268324</v>
+        <v>0.9515943032397519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -6591,19 +6591,19 @@
         <v>179577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>170400</v>
+        <v>169632</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185508</v>
+        <v>186402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9236253939073671</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8764252802241781</v>
+        <v>0.8724764304770605</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9541306116314193</v>
+        <v>0.9587273150421133</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>183</v>
@@ -6612,19 +6612,19 @@
         <v>195789</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>186203</v>
+        <v>185110</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202669</v>
+        <v>202558</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9158888872639055</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8710463231068856</v>
+        <v>0.8659334444672981</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9480726704563479</v>
+        <v>0.9475546366173281</v>
       </c>
     </row>
     <row r="26">
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4090</v>
+        <v>6497</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04937935255792561</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.211435223408644</v>
+        <v>0.3359068110101291</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -6662,19 +6662,19 @@
         <v>10063</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4594</v>
+        <v>5015</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18103</v>
+        <v>18570</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05175832947030026</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02362997386995344</v>
+        <v>0.02579149863065173</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0931082646812998</v>
+        <v>0.09551422759314544</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -6683,19 +6683,19 @@
         <v>11018</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5654</v>
+        <v>5648</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19582</v>
+        <v>18961</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05154306772354194</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02645124048016156</v>
+        <v>0.02642162637191437</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0916041220411067</v>
+        <v>0.0887007863866406</v>
       </c>
     </row>
     <row r="27">
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6460</v>
+        <v>6610</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1124956778525116</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3339744394117403</v>
+        <v>0.3417502604020377</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6663</v>
+        <v>7024</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01017917239605367</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0311697479594407</v>
+        <v>0.03285587391353052</v>
       </c>
     </row>
     <row r="28">
@@ -6779,19 +6779,19 @@
         <v>17618</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10800</v>
+        <v>10944</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>27144</v>
+        <v>27007</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02331892084413231</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01429415116986591</v>
+        <v>0.01448528926549567</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03592626923690907</v>
+        <v>0.03574605481140702</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -6800,19 +6800,19 @@
         <v>22539</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14229</v>
+        <v>13965</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33741</v>
+        <v>33640</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02034928039640643</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01284670759518878</v>
+        <v>0.01260842445045269</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.030463083975903</v>
+        <v>0.03037190938159711</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>38</v>
@@ -6821,19 +6821,19 @@
         <v>40157</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28732</v>
+        <v>28289</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>53550</v>
+        <v>55329</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02155351834004585</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01542109921518203</v>
+        <v>0.01518361114447785</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02874180742704161</v>
+        <v>0.02969633220531832</v>
       </c>
     </row>
     <row r="29">
@@ -6850,19 +6850,19 @@
         <v>690518</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>674101</v>
+        <v>673833</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>704850</v>
+        <v>704868</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9139457651740919</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8922171572508061</v>
+        <v>0.891862310714942</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9329146504749046</v>
+        <v>0.932938405213551</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>949</v>
@@ -6871,19 +6871,19 @@
         <v>970906</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>947641</v>
+        <v>947711</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>991724</v>
+        <v>991893</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8765794408761647</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8555741286562064</v>
+        <v>0.8556376731363832</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8953749726649324</v>
+        <v>0.8955275592570046</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1600</v>
@@ -6892,19 +6892,19 @@
         <v>1661425</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1634175</v>
+        <v>1632021</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1688615</v>
+        <v>1687162</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8917320986897928</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.877105961368265</v>
+        <v>0.8759502453968844</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9063255207352264</v>
+        <v>0.9055456531225261</v>
       </c>
     </row>
     <row r="30">
@@ -6921,19 +6921,19 @@
         <v>39095</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28433</v>
+        <v>27983</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52610</v>
+        <v>51941</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05174502831467606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03763314371357473</v>
+        <v>0.03703721671350866</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06963301433554055</v>
+        <v>0.06874730437021918</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>100</v>
@@ -6942,19 +6942,19 @@
         <v>104647</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86601</v>
+        <v>87537</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127928</v>
+        <v>126565</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09448005673121546</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07818768166720183</v>
+        <v>0.07903211254094444</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1154996233822183</v>
+        <v>0.1142690865510882</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -6963,19 +6963,19 @@
         <v>143742</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>120713</v>
+        <v>122506</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168589</v>
+        <v>169219</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07715030127845837</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06479000434252018</v>
+        <v>0.065752323206568</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09048612663992557</v>
+        <v>0.0908246008161612</v>
       </c>
     </row>
     <row r="31">
@@ -6992,19 +6992,19 @@
         <v>10440</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5276</v>
+        <v>5254</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19189</v>
+        <v>18425</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01381738572724973</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006983161685762258</v>
+        <v>0.006954241133906963</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02539847057390404</v>
+        <v>0.0243864577211583</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -7013,19 +7013,19 @@
         <v>10536</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5213</v>
+        <v>5047</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18618</v>
+        <v>18090</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.009511955421885611</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004706956993329222</v>
+        <v>0.004556294722004016</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01680948403852539</v>
+        <v>0.01633267410662751</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -7034,19 +7034,19 @@
         <v>20975</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12766</v>
+        <v>13529</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31209</v>
+        <v>32599</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01125787807773607</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006851676588313122</v>
+        <v>0.007261588347947814</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01675087353310305</v>
+        <v>0.01749688564724812</v>
       </c>
     </row>
     <row r="32">
